--- a/Linearisierungen/CHP Kosten.xlsx
+++ b/Linearisierungen/CHP Kosten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{F3151269-F447-4AC4-A955-E6E53B459D8E}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2293E1B9-0D54-48A1-9332-D7DA4B17B9B5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Bundesministerium</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>ab 2000 kW konstanter</t>
+  </si>
+  <si>
+    <t>TGA: auf thermische</t>
+  </si>
+  <si>
+    <t>EUR/kW_el</t>
+  </si>
+  <si>
+    <t>kW_el</t>
+  </si>
+  <si>
+    <t>Leistung bezogen,</t>
+  </si>
+  <si>
+    <t>daher unbrauchbar</t>
   </si>
 </sst>
 </file>
@@ -1890,14 +1905,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F25"/>
+  <dimension ref="A3:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1914,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -2095,14 +2111,20 @@
         <v>608.23528695059224</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -2111,7 +2133,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
       <c r="D19">
         <v>10</v>
       </c>
@@ -2123,7 +2148,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>62.5</v>
       </c>
@@ -2135,7 +2160,7 @@
         <v>103.125</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>175</v>
       </c>
@@ -2147,7 +2172,7 @@
         <v>155.75</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>625</v>
       </c>
@@ -2159,7 +2184,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>2000</v>
       </c>
@@ -2171,10 +2196,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>3000</v>
       </c>
@@ -2186,8 +2208,13 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Linearisierungen/CHP Kosten.xlsx
+++ b/Linearisierungen/CHP Kosten.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2293E1B9-0D54-48A1-9332-D7DA4B17B9B5}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{D537E9CD-E09A-4E7D-AD2F-15A1C3E73EF3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagramm" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -143,7 +144,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Bundesministerium</c:v>
+            <c:v>BMVBS Publikation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -230,7 +231,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC29-4E5D-B4B2-11F73C8E4B5F}"/>
+              <c16:uniqueId val="{00000000-3E30-4964-B20A-C9F11B2D8E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -238,7 +239,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>IUTA</c:v>
+            <c:v>IUTA Preisatlas</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -249,7 +250,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -349,7 +350,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC29-4E5D-B4B2-11F73C8E4B5F}"/>
+              <c16:uniqueId val="{00000001-3E30-4964-B20A-C9F11B2D8E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -357,7 +358,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Europa</c:v>
+            <c:v>EU Studie</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -368,7 +369,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="7"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
@@ -438,7 +439,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC29-4E5D-B4B2-11F73C8E4B5F}"/>
+              <c16:uniqueId val="{00000002-3E30-4964-B20A-C9F11B2D8E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -462,7 +463,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -472,37 +473,7 @@
             <c:backward val="10"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -597,7 +568,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EC29-4E5D-B4B2-11F73C8E4B5F}"/>
+              <c16:uniqueId val="{00000004-3E30-4964-B20A-C9F11B2D8E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -621,46 +592,16 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="145"/>
+            <c:intercept val="144"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -737,7 +678,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-EC29-4E5D-B4B2-11F73C8E4B5F}"/>
+              <c16:uniqueId val="{00000006-3E30-4964-B20A-C9F11B2D8E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -758,10 +699,11 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>Regression</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -770,37 +712,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="263"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -853,7 +765,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-EC29-4E5D-B4B2-11F73C8E4B5F}"/>
+              <c16:uniqueId val="{00000008-3E30-4964-B20A-C9F11B2D8E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -890,18 +802,95 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>elektrische</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Nennleistung [MW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1500" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -912,12 +901,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -930,6 +916,9 @@
         <c:crossAx val="150546560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="150546560"/>
@@ -952,18 +941,95 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Investitionskosten</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [Tsd. €]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1500" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -974,12 +1040,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -992,15 +1055,80 @@
         <c:crossAx val="135736720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15915465237753884"/>
+          <c:y val="9.0618694996159294E-2"/>
+          <c:w val="0.18946509884831442"/>
+          <c:h val="0.19402308044827729"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1017,12 +1145,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1037,11 +1160,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1601,31 +1719,35 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D8AEF1D-F368-4300-A96D-FDD0866FEBA5}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9305925" cy="6010275"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F34136-A40B-42EF-ACF2-4E39F00E2D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1571B6-A6BB-4260-A8ED-86BAEC83E37A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1638,7 +1760,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1907,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,6 +2342,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>